--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dyoud/projects/smart-watch-winder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B5E53-4DBE-1D4A-91FF-E9F07750AD4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E938F-A3F5-E646-9F2E-923BFF8DA056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34580" yWindow="120" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1440" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32_Pinout" sheetId="2" r:id="rId2"/>
     <sheet name="ArduinoCam Pinout" sheetId="3" r:id="rId3"/>
+    <sheet name="Turns per day" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESP32_Pinout!$A$1:$T$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="331">
   <si>
     <t>ESP32</t>
   </si>
@@ -969,12 +971,81 @@
   <si>
     <t>Winder_4</t>
   </si>
+  <si>
+    <t>STEPS_PER_REVOLUTION</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>WINDER_DELAY_CYCLES</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>Target TPD</t>
+  </si>
+  <si>
+    <t>WINDER_ROTATIONS_PER_CYCLE</t>
+  </si>
+  <si>
+    <t>turns</t>
+  </si>
+  <si>
+    <t>WIND_BOTH_DIRECTIONS</t>
+  </si>
+  <si>
+    <t>Suggested settings</t>
+  </si>
+  <si>
+    <t>ms per minute</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>intervals per day</t>
+  </si>
+  <si>
+    <t>Intervals per day</t>
+  </si>
+  <si>
+    <t>time per interval</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>time per rotation</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>ms per day</t>
+  </si>
+  <si>
+    <t>once every 15min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,6 +1108,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1076,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1114,6 +1201,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1522,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1620,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="O27" sqref="O27:O40"/>
     </sheetView>
   </sheetViews>
@@ -3199,4 +3290,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EAACE0-BA9E-C141-BD01-1945B6E3105A}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2">
+        <v>2048</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="26">
+        <f>D7*D4*IF(D5,2,1)</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="28">
+        <f>D10/D3</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8">
+        <f>D4*D9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="27">
+        <v>86400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dyoud/projects/smart-watch-winder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E938F-A3F5-E646-9F2E-923BFF8DA056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A1476-7857-0847-9B96-F29F2AF8D85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1440" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36540" yWindow="-2220" windowWidth="29580" windowHeight="20560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32_Pinout" sheetId="2" r:id="rId2"/>
     <sheet name="ArduinoCam Pinout" sheetId="3" r:id="rId3"/>
-    <sheet name="Turns per day" sheetId="4" r:id="rId4"/>
+    <sheet name="Board layout" sheetId="5" r:id="rId4"/>
+    <sheet name="Turns per day" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESP32_Pinout!$A$1:$T$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="371">
   <si>
     <t>ESP32</t>
   </si>
@@ -909,39 +909,6 @@
   </si>
   <si>
     <t>Cam_RESET</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>White?</t>
-  </si>
-  <si>
-    <t>Red</t>
   </si>
   <si>
     <r>
@@ -1040,14 +1007,288 @@
   <si>
     <t>once every 15min</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>Colour key:</t>
+  </si>
+  <si>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Vsync</t>
+  </si>
+  <si>
+    <t>PCLK</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>HREF</t>
+  </si>
+  <si>
+    <t>XCLK</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>PDWN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Back Side </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Camera</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Stepper-input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Front Side (OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESP32</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>XCLCK</t>
+  </si>
+  <si>
+    <t>OV2640</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1124,6 +1365,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1151,7 +1466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1159,52 +1474,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,6 +1752,2508 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D50E067-ECBB-6D4D-A310-DD99A3C7E006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2273300" y="7480300"/>
+          <a:ext cx="4686300" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100136"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9DC0B4-A01A-974F-96E3-D7BE78D0135F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4051300" y="7378700"/>
+          <a:ext cx="2463800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0392E4A2-5F79-6247-90A3-38CA5EEBE1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4305300" y="7023100"/>
+          <a:ext cx="2628900" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Elbow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0313E50-F6DD-8C4B-88AB-D561C0A8B125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3721100" y="7061200"/>
+          <a:ext cx="2794000" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Elbow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F5B40E-8C8E-C94C-BE73-C7415E4201C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="2743200"/>
+          <a:ext cx="1778000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 714"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCBE430-9984-4E4F-B9AD-E9F51CE27E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4385734" y="3107267"/>
+          <a:ext cx="0" cy="745066"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Elbow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D394D983-8107-CA4D-A216-CF23367CC04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3128433" y="1295400"/>
+          <a:ext cx="3314700" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C12B76F-B3F1-E54D-B434-A30DF55F738F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6451600" y="999069"/>
+          <a:ext cx="0" cy="296331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Elbow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1120DB2D-8A0A-CB48-9768-E06D3125ED8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2734733"/>
+          <a:ext cx="596900" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 354"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917C94C6-235F-FE43-A874-59D27A4CC7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="3276600"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Elbow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF70D9E-E4B2-F747-B1C4-C197E7F432F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4368801" y="1811867"/>
+          <a:ext cx="1761066" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 481"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B209C4-4160-F743-A632-C39996A4858F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6731000" y="999068"/>
+          <a:ext cx="8467" cy="922865"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B4B196-5559-D146-A87B-123839742042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="3149600"/>
+          <a:ext cx="0" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Elbow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03A7195-4054-744D-8795-CA4A7493BC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="2717800"/>
+          <a:ext cx="1143000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Elbow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3C94E1-0C09-FB45-883A-DB45D0A0C3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3793067" y="1498600"/>
+          <a:ext cx="3556000" cy="711201"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8642FF23-52E7-F646-95E7-D405D92C2244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7340600" y="986369"/>
+          <a:ext cx="1" cy="512231"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241305</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63503</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Elbow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA7F938-B6A6-F547-8E2C-973A55612868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4351867" y="1185334"/>
+          <a:ext cx="1299638" cy="960969"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -163"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CB1073-0F79-2343-92B0-7E12E51DB2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4351867" y="986369"/>
+          <a:ext cx="12700" cy="182031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Elbow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0CCEB0-8AA0-6740-9064-7EB0C6F7C81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2260600" y="3314700"/>
+          <a:ext cx="3225800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B69623D-3257-1745-826F-06C6D8998369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="3517900"/>
+          <a:ext cx="0" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BE1444-AAEB-C84F-8F5F-30B6BA895B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="3128438"/>
+          <a:ext cx="241300" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E505D90-C3FC-9546-8F6F-E55C3962C5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="113" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5568950" y="2734733"/>
+          <a:ext cx="2117" cy="393705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>287867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Elbow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5A759F-8410-2549-B75F-7953C387CFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4995333" y="2717800"/>
+          <a:ext cx="863600" cy="84667"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156634</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160868</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227BE591-2AEC-BC46-B709-1D3FC2E86837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5863167" y="2802467"/>
+          <a:ext cx="4234" cy="1049866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Elbow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1FDEA9-0F01-A340-B1C9-1924BC1A30B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4909368" y="1480368"/>
+          <a:ext cx="688398" cy="592667"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72320"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22851</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BCB3F0-954A-3B4E-A5BF-B6E1C4710F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5549900" y="999067"/>
+          <a:ext cx="0" cy="446184"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>287867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="144" name="Group 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DBCDA3-7EDA-1A4C-8A19-36255AEB0A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4639733" y="2717800"/>
+          <a:ext cx="1532468" cy="1143000"/>
+          <a:chOff x="4639733" y="2717800"/>
+          <a:chExt cx="1532468" cy="1143000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="136" name="Elbow Connector 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013FFED8-2CCA-8A46-A091-425BB42B6B7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4639733" y="2717800"/>
+            <a:ext cx="1524000" cy="135467"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400" cap="sq">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="141" name="Straight Arrow Connector 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BE51C6-D661-5347-B7EF-379237A6AD26}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6172200" y="2861733"/>
+            <a:ext cx="1" cy="999067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Elbow Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FEF88D-B261-104E-B088-7CEBEE7F946E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4682067" y="1718733"/>
+          <a:ext cx="1193800" cy="431803"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 355"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Arrow Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36991BE-2DFC-BE43-94A1-93CE51F7759B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5884333" y="1007535"/>
+          <a:ext cx="0" cy="719665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>296334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Elbow Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543F68F1-B93A-8641-AC92-86CA944B7395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445000" y="2726267"/>
+          <a:ext cx="2023533" cy="194733"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 209"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="Straight Arrow Connector 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E5223F-43B0-3B45-85D2-0457A23AB9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="2912534"/>
+          <a:ext cx="0" cy="948266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>296334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="Elbow Connector 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3252AD89-64E1-0F44-93F3-471C12CD64FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2726267"/>
+          <a:ext cx="3276600" cy="270933"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 129"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Straight Arrow Connector 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83389534-337D-7B40-98CF-06DA8A59BE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7349067" y="2988733"/>
+          <a:ext cx="0" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>245534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="Straight Arrow Connector 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC0F66F-E546-7C47-A12C-8F35D5462D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6138333" y="990601"/>
+          <a:ext cx="1" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="Elbow Connector 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B37E46-EA5D-8842-804E-950972A2941F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4055533" y="1913467"/>
+          <a:ext cx="2675467" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Arrow Connector 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A11189-2948-8A43-B91E-DBDF43ABC9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2870200" y="1007533"/>
+          <a:ext cx="0" cy="1151467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="Elbow Connector 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08908BF-1C40-2E4C-9022-2DD06590B235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3479800" y="1397000"/>
+          <a:ext cx="3530600" cy="745068"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 360"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="254" name="Straight Arrow Connector 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82006C6D-2AE0-A644-841C-F2B62B34A928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7018867" y="1007533"/>
+          <a:ext cx="1" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135468</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="Elbow Connector 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1936A7-6439-4045-9926-C8C864FABADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2146303" y="2916768"/>
+          <a:ext cx="922862" cy="643466"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>169335</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="Elbow Connector 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3113CA4D-7C87-4540-8E68-4E6FFA49F186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4953000" y="5825067"/>
+          <a:ext cx="2108202" cy="787402"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 602"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>245534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F3608B-C304-5049-BCD5-2396396347C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4961467" y="5486401"/>
+          <a:ext cx="8466" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177805</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="282" name="Elbow Connector 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1775F4F9-E5B1-304D-B0E6-5F6230741EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5588001" y="5723467"/>
+          <a:ext cx="1185337" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400" cap="sq">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>245534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="Straight Arrow Connector 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8705263-1772-624A-B79E-5F9645BD723E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5604933" y="5486401"/>
+          <a:ext cx="0" cy="245532"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1711,8 +4745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:O40"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -1793,7 +4827,7 @@
         <v>220</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2231,7 +5265,7 @@
         <v>112</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2272,7 +5306,7 @@
         <v>119</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2313,7 +5347,7 @@
         <v>126</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2654,7 +5688,7 @@
         <v>198</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2911,379 +5945,385 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B7DE5-66E3-E248-8710-9711B4F5FAD2}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="21"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="16" t="s">
         <v>248</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21">
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="21">
       <c r="A3" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="16" t="s">
         <v>250</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21">
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="21">
       <c r="A5" s="16" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
       <c r="A6" s="16" t="s">
         <v>252</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
       <c r="A7" s="16" t="s">
         <v>253</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
       <c r="A8" s="16" t="s">
         <v>254</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" s="16" t="s">
         <v>256</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
       <c r="A10" s="16" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
       <c r="A11" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
       <c r="A12" s="16" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
       <c r="A13" s="16" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
       <c r="A14" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
       <c r="A15" s="16" t="s">
         <v>265</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="21">
       <c r="A16" s="16" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="16" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>270</v>
-      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="20" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="21">
+      <c r="E17" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="21">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="16" t="s">
         <v>272</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3293,10 +6333,1089 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C5736-0E28-F641-A1B8-E6F823909693}">
+  <dimension ref="A1:AD26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="3.83203125" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29">
+      <c r="A1" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:30" ht="29">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+    </row>
+    <row r="3" spans="1:30" ht="27" thickBot="1">
+      <c r="A3" s="46">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="N3" s="35">
+        <v>15</v>
+      </c>
+      <c r="O3" s="35">
+        <v>2</v>
+      </c>
+      <c r="P3" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="35">
+        <v>4</v>
+      </c>
+      <c r="R3" s="35">
+        <v>16</v>
+      </c>
+      <c r="S3" s="35">
+        <v>17</v>
+      </c>
+      <c r="T3" s="35">
+        <v>5</v>
+      </c>
+      <c r="U3" s="35">
+        <v>18</v>
+      </c>
+      <c r="V3" s="35">
+        <v>23</v>
+      </c>
+      <c r="W3" s="35">
+        <v>19</v>
+      </c>
+      <c r="X3" s="35">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="26">
+      <c r="A4" s="46">
+        <v>9</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="48"/>
+      <c r="AD4" s="37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="26">
+      <c r="A5" s="46">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="48"/>
+      <c r="AD5" s="38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="26">
+      <c r="A6" s="46">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="48"/>
+      <c r="AD6" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="27" thickBot="1">
+      <c r="A7" s="46">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="48"/>
+      <c r="AD7" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="26">
+      <c r="A8" s="46">
+        <v>5</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34">
+        <v>4</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="R8" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="48"/>
+    </row>
+    <row r="9" spans="1:30" ht="26">
+      <c r="A9" s="46">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34">
+        <v>2</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="48"/>
+    </row>
+    <row r="10" spans="1:30" ht="26">
+      <c r="A10" s="46">
+        <v>3</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="48"/>
+    </row>
+    <row r="11" spans="1:30" ht="26">
+      <c r="A11" s="46">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:30" ht="27" thickBot="1">
+      <c r="A12" s="49">
+        <v>1</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="51">
+        <v>13</v>
+      </c>
+      <c r="M12" s="51">
+        <v>12</v>
+      </c>
+      <c r="N12" s="51">
+        <v>14</v>
+      </c>
+      <c r="O12" s="51">
+        <v>27</v>
+      </c>
+      <c r="P12" s="51">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="51">
+        <v>25</v>
+      </c>
+      <c r="R12" s="51">
+        <v>33</v>
+      </c>
+      <c r="S12" s="51">
+        <v>32</v>
+      </c>
+      <c r="T12" s="51">
+        <v>35</v>
+      </c>
+      <c r="U12" s="51">
+        <v>34</v>
+      </c>
+      <c r="V12" s="51">
+        <v>39</v>
+      </c>
+      <c r="W12" s="51">
+        <v>38</v>
+      </c>
+      <c r="X12" s="51">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16" thickBot="1"/>
+    <row r="15" spans="1:30" ht="29">
+      <c r="A15" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+    </row>
+    <row r="16" spans="1:30" ht="29">
+      <c r="A16" s="44"/>
+      <c r="B16" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="V16" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="W16" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="X16" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="26">
+      <c r="A17" s="46">
+        <v>10</v>
+      </c>
+      <c r="B17" s="35">
+        <v>21</v>
+      </c>
+      <c r="C17" s="35">
+        <v>22</v>
+      </c>
+      <c r="D17" s="35">
+        <v>19</v>
+      </c>
+      <c r="E17" s="35">
+        <v>23</v>
+      </c>
+      <c r="F17" s="35">
+        <v>18</v>
+      </c>
+      <c r="G17" s="35">
+        <v>5</v>
+      </c>
+      <c r="H17" s="35">
+        <v>17</v>
+      </c>
+      <c r="I17" s="35">
+        <v>16</v>
+      </c>
+      <c r="J17" s="35">
+        <v>4</v>
+      </c>
+      <c r="K17" s="35">
+        <v>0</v>
+      </c>
+      <c r="L17" s="35">
+        <v>2</v>
+      </c>
+      <c r="M17" s="35">
+        <v>15</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="S17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="54"/>
+    </row>
+    <row r="18" spans="1:25" ht="26">
+      <c r="A18" s="46">
+        <v>9</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="48"/>
+    </row>
+    <row r="19" spans="1:25" ht="26">
+      <c r="A19" s="46">
+        <v>6</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="48"/>
+    </row>
+    <row r="20" spans="1:25" ht="26">
+      <c r="A20" s="46">
+        <v>7</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="48"/>
+    </row>
+    <row r="21" spans="1:25" ht="26">
+      <c r="A21" s="46">
+        <v>8</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q21" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="48"/>
+    </row>
+    <row r="22" spans="1:25" ht="26">
+      <c r="A22" s="46">
+        <v>5</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="34">
+        <v>4</v>
+      </c>
+      <c r="X22" s="34">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="48"/>
+    </row>
+    <row r="23" spans="1:25" ht="26">
+      <c r="A23" s="46">
+        <v>4</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="34">
+        <v>2</v>
+      </c>
+      <c r="X23" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="48"/>
+    </row>
+    <row r="24" spans="1:25" ht="26">
+      <c r="A24" s="46">
+        <v>3</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="48"/>
+    </row>
+    <row r="25" spans="1:25" ht="26">
+      <c r="A25" s="46">
+        <v>2</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="48"/>
+    </row>
+    <row r="26" spans="1:25" ht="27" thickBot="1">
+      <c r="A26" s="49">
+        <v>1</v>
+      </c>
+      <c r="B26" s="51">
+        <v>36</v>
+      </c>
+      <c r="C26" s="51">
+        <v>37</v>
+      </c>
+      <c r="D26" s="51">
+        <v>38</v>
+      </c>
+      <c r="E26" s="51">
+        <v>39</v>
+      </c>
+      <c r="F26" s="51">
+        <v>34</v>
+      </c>
+      <c r="G26" s="51">
+        <v>35</v>
+      </c>
+      <c r="H26" s="51">
+        <v>32</v>
+      </c>
+      <c r="I26" s="51">
+        <v>33</v>
+      </c>
+      <c r="J26" s="51">
+        <v>25</v>
+      </c>
+      <c r="K26" s="51">
+        <v>26</v>
+      </c>
+      <c r="L26" s="51">
+        <v>27</v>
+      </c>
+      <c r="M26" s="51">
+        <v>14</v>
+      </c>
+      <c r="N26" s="51">
+        <v>12</v>
+      </c>
+      <c r="O26" s="51">
+        <v>13</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q26" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A15:Y15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EAACE0-BA9E-C141-BD01-1945B6E3105A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3309,30 +7428,30 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D2">
         <v>2048</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I2" s="26">
         <f>D7*D4*IF(D5,2,1)</f>
@@ -3341,10 +7460,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D3">
         <v>900000</v>
@@ -3352,39 +7471,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -3392,13 +7511,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D7" s="28">
         <f>D10/D3</f>
@@ -3407,10 +7526,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D8">
         <f>D4*D9</f>
@@ -3419,10 +7538,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3430,10 +7549,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D10" s="27">
         <v>86400000</v>
